--- a/DS problems.xlsx
+++ b/DS problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangc\Documents\GitHub\Coding_Practice_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC171BE8-8E3A-4AF6-927B-C1240C8A6DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24601876-A61B-49EC-827E-A90170D524D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode Algorithm" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="1810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="1836">
   <si>
     <t>题号</t>
   </si>
@@ -5467,6 +5467,84 @@
   </si>
   <si>
     <t># time: O(n)</t>
+  </si>
+  <si>
+    <t>#163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        :type lower: int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        :type upper: int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        :rtype: List[str]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def findMissingRanges(self, nums, lower, upper):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        def add(myList, low, high):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if low == high:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            elif low + 1 == high:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            elif low + 1 == high - 1:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                myList.append(str(low + 1))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                element = str(low + 1) + '-&gt;' + str(high - 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                myList.append(element)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        n = len(nums)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        result = []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if n == 0:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            # if there is nothing in the list, then output one range "element = str(low + 1) + '-&gt;' + str(high - 1)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            add(result, lower - 1, upper + 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #1. add left bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        add(result, lower - 1, nums[0])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #2. add middle part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for i in range(1, n):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            add(result, nums[i - 1], nums[i])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #3. add right bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        add(result, nums[n - 1], upper + 1)</t>
   </si>
 </sst>
 </file>
@@ -6151,11 +6229,11 @@
   </sheetPr>
   <dimension ref="A1:R1230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B414" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A206" sqref="A206"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6241,7 +6319,7 @@
       <c r="G2" s="41"/>
       <c r="H2" s="39"/>
       <c r="I2" s="41">
-        <f t="shared" ref="I2:P2" si="0">COUNTA(I3:I1048576)</f>
+        <f t="shared" ref="I2:Q2" si="0">COUNTA(I3:I1048576)</f>
         <v>8</v>
       </c>
       <c r="J2" s="41">
@@ -6272,7 +6350,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q2" s="41"/>
+      <c r="Q2" s="41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
@@ -9868,6 +9949,9 @@
       </c>
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
+      <c r="Q206" s="5" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="37">
@@ -13117,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A417" s="37">
         <v>622</v>
       </c>
@@ -13132,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A418" s="37">
         <v>402</v>
       </c>
@@ -13147,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A419" s="37">
         <v>448</v>
       </c>
@@ -13162,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A420" s="37">
         <v>319</v>
       </c>
@@ -13177,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A421" s="37">
         <v>378</v>
       </c>
@@ -13192,7 +13276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A422" s="37">
         <v>1145</v>
       </c>
@@ -13207,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A423" s="37">
         <v>801</v>
       </c>
@@ -13222,7 +13306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A424" s="37">
         <v>264</v>
       </c>
@@ -13237,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A425" s="37">
         <v>61</v>
       </c>
@@ -13252,7 +13336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A426" s="37">
         <v>296</v>
       </c>
@@ -13267,7 +13351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A427" s="37">
         <v>63</v>
       </c>
@@ -13282,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A428" s="37">
         <v>1202</v>
       </c>
@@ -13297,7 +13381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A429" s="37">
         <v>280</v>
       </c>
@@ -13312,7 +13396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A430" s="37">
         <v>352</v>
       </c>
@@ -13327,8 +13411,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="37">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A431" s="32">
         <v>163</v>
       </c>
       <c r="B431" s="1" t="s">
@@ -13341,8 +13425,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Q431" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A432" s="37">
         <v>270</v>
       </c>
@@ -25369,10 +25456,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26002,13 +26089,177 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>1808</v>
       </c>
     </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>1708</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
